--- a/data/trans_dic/P25_9-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_9-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece mala circulación</t>
+          <t>Población que padece mala circulación (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>47,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17,07%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>32,95%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 16,4</t>
+          <t>1,49; 16,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 22,35</t>
+          <t>3,64; 21,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 16,23</t>
+          <t>0,0; 16,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,28; 38,29</t>
+          <t>5,26; 32,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,48; 29,22</t>
+          <t>20,29; 47,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,84; 28,57</t>
+          <t>13,35; 35,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,38; 25,66</t>
+          <t>14,54; 39,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,77; 23,29</t>
+          <t>32,09; 61,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,06; 19,98</t>
+          <t>12,63; 29,01</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10,64; 26,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8,65; 24,4</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18,61; 45,59</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>11,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15,31%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,59</t>
+          <t>2,09; 10,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 10,06</t>
+          <t>0,95; 5,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,39</t>
+          <t>1,3; 6,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,12; 21,67</t>
+          <t>5,22; 14,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,94; 23,59</t>
+          <t>13,09; 23,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 23,38</t>
+          <t>13,3; 24,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,38; 13,84</t>
+          <t>10,74; 20,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,32; 14,38</t>
+          <t>15,92; 28,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 13,12</t>
+          <t>8,2; 15,54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7,48; 13,99</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 12,68</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11,47; 19,59</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8,0%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,97%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 8,27</t>
+          <t>1,89; 8,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,69</t>
+          <t>0,59; 5,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,92</t>
+          <t>0,61; 5,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,77; 19,42</t>
+          <t>1,52; 8,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,64; 17,73</t>
+          <t>10,67; 22,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,82; 17,18</t>
+          <t>9,57; 20,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 13,21</t>
+          <t>8,29; 18,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 10,86</t>
+          <t>9,74; 21,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,88</t>
+          <t>7,36; 14,69</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 11,89</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,26; 11,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 13,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,6; 22,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,77; 19,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 19,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,35; 14,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,35; 13,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,17; 12,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,83%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18,77%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17,13%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,34%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,64%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,94; 7,67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 5,77</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 5,38</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,89; 12,25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15,26; 22,93</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13,84; 21,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12,66; 19,63</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18,92; 29,16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9,96; 15,02</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8,61; 13,23</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 11,95</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13,43; 19,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece mala circulación (tasa de respuesta: 99,86%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7492</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11200</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6145</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32196</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>45084</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26517</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31392</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>87390</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>52576</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>37717</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>37537</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>119586</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1921; 21399</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3842; 22910</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18410</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9350; 58539</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>28425; 66747</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15420; 40625</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17790; 47967</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>59476; 114598</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33972; 78028</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>23501; 57755</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20465; 57721</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>67563; 165473</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21279</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9380</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12523</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>46662</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>82405</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>69259</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>57334</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>108179</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>103684</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>78638</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>69856</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>154841</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8895; 42860</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3588; 20977</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5204; 25950</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26980; 75246</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>60502; 110728</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>50644; 93750</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>40306; 78672</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>78768; 142237</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>72905; 138070</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>56630; 105940</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>48324; 98221</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>115979; 198123</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14557</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5937</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5765</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13425</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>65946</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>48333</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>42435</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>61345</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>80503</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>54271</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48200</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>74769</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6306; 29222</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1678; 16525</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1683; 15892</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5341; 31518</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>45703; 94237</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32981; 69520</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27156; 61154</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38925; 84370</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>56050; 111861</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36545; 74551</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>31724; 70133</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>51908; 103679</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>43328</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>26517</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>24433</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>92282</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>193435</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>144110</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>131161</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>256914</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>236763</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>170626</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>155594</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>349196</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>26126; 68136</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15998; 44059</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12196; 42469</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>61519; 128019</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>157242; 236339</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>116418; 177298</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>104454; 161919</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>204251; 314793</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>191090; 288252</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>138185; 212342</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>122863; 192904</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>285340; 420514</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
